--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,31 +482,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-12-14 20:46:57</t>
+          <t>2025-01-20 22:36:21</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5623305841</v>
+        <v>5928778721</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shohruh</t>
+          <t>Akbarjon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>998946301855</t>
+          <t>+998903632710</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-12-14 20:52:18</t>
+          <t>2025-01-20 22:30:58</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -515,73 +515,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5928778721</v>
+        <v>6238113569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akbarjon</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+998903632710</t>
+          <t>+998770022710</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-12-14 20:24:30</t>
+          <t>2025-01-20 22:31:18</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6179552075</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Shohruh</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>998905076607</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-12-14 20:57:22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7453906704</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Shohruh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>79689259286</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-12-14 20:50:03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
